--- a/dspackagefolder/template/checklist/ML_CHECKLIST.xlsx
+++ b/dspackagefolder/template/checklist/ML_CHECKLIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajim\Desktop\NonPHD_Muizdeen\INTERVIEWS\dspackage\dspackagefolder\template\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B655AD3-98BE-4A2C-880A-C885E1C5A837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6D1E8-B20F-4626-8698-65628B625B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
